--- a/RTL/PWM/PWM_calculator.xlsx
+++ b/RTL/PWM/PWM_calculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosuv\Desktop\Disertatie\RISC-V_Microcontroller\RTL\PWM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665079BB-2E69-4AB8-AE88-737373E126BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B79E66-79D2-411D-90E6-2A04C924B8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0BD04C28-8A34-4020-8FCB-0694C3C8DB3F}"/>
+    <workbookView xWindow="8985" yWindow="1110" windowWidth="15765" windowHeight="14490" xr2:uid="{0BD04C28-8A34-4020-8FCB-0694C3C8DB3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -397,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -412,39 +412,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -794,7 +788,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,17 +838,17 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="19">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="C4" s="20">
-        <v>37</v>
-      </c>
-      <c r="D4" s="20">
-        <v>45</v>
-      </c>
-      <c r="E4" s="20">
-        <v>225</v>
+      <c r="B4" s="18">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C4" s="19">
+        <v>50</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0</v>
+      </c>
+      <c r="E4" s="19">
+        <v>120</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="7">
@@ -879,7 +873,7 @@
       <c r="F5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="1"/>
@@ -901,7 +895,7 @@
       <c r="F6" s="13">
         <v>125000</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="17">
         <v>62500</v>
       </c>
       <c r="H6" s="1"/>
@@ -927,7 +921,7 @@
         <f t="shared" si="0"/>
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="17">
         <f t="shared" si="0"/>
         <v>1.5999999999999999E-5</v>
       </c>
@@ -940,23 +934,23 @@
       </c>
       <c r="C8" s="14">
         <f>IF(($B$4/C7)&lt;=(2^$G$4-1),($B$4/C7),"Out of range")</f>
-        <v>8</v>
+        <v>50.000000000000007</v>
       </c>
       <c r="D8" s="14">
-        <f t="shared" ref="D8:G8" si="1">IF(($B$4/D7)&lt;=(2^$G$4-1),($B$4/D7),"Out of range")</f>
-        <v>4</v>
+        <f>IF(($B$4/D7)&lt;=(2^$G$4-1),($B$4/D7),"Out of range")</f>
+        <v>25.000000000000004</v>
       </c>
       <c r="E8" s="14">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" ref="D8:G8" si="1">IF(($B$4/E7)&lt;=(2^$G$4-1),($B$4/E7),"Out of range")</f>
+        <v>12.500000000000002</v>
       </c>
       <c r="F8" s="14">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>6.2500000000000009</v>
       </c>
       <c r="G8" s="14">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>3.1250000000000004</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -967,23 +961,23 @@
       </c>
       <c r="C9" s="14">
         <f>IF(((($B$4/C7)/360)*$D$4)&lt;=(2^$G$4-1),((($B$4/C7)/360)*$D$4),"Out of range")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="14">
-        <f t="shared" ref="D9:G9" si="2">IF(((($B$4/D7)/360)*$D$4)&lt;=(2^$G$4-1),((($B$4/D7)/360)*$D$4),"Out of range")</f>
-        <v>0.5</v>
+        <f>IF(((($B$4/D7)/360)*$D$4)&lt;=(2^$G$4-1),((($B$4/D7)/360)*$D$4),"Out of range")</f>
+        <v>0</v>
       </c>
       <c r="E9" s="14">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
+        <f>IF(((($B$4/E7)/360)*$D$4)&lt;=(2^$G$4-1),((($B$4/E7)/360)*$D$4),"Out of range")</f>
+        <v>0</v>
       </c>
       <c r="F9" s="14">
-        <f t="shared" si="2"/>
-        <v>0.125</v>
+        <f t="shared" ref="D9:G9" si="2">IF(((($B$4/F7)/360)*$D$4)&lt;=(2^$G$4-1),((($B$4/F7)/360)*$D$4),"Out of range")</f>
+        <v>0</v>
       </c>
       <c r="G9" s="14">
         <f t="shared" si="2"/>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -992,25 +986,25 @@
       <c r="B10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="15">
-        <f>IF(((C8*(C4/100))+C9)&lt;=(2^$G$4-1),((C8*(C4/100))+C9),"Out of range")</f>
-        <v>3.96</v>
-      </c>
-      <c r="D10" s="15">
-        <f t="shared" ref="D10:G10" si="3">IF(((D8*(D4/100))+D9)&lt;=(2^$G$4-1),((D8*(D4/100))+D9),"Out of range")</f>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E10" s="15">
+      <c r="C10" s="14">
+        <f>IF(((C8*($C$4/100))+C9)&lt;=(2^$G$4-1),((C8*($C$4/100))+C9),"Out of range")</f>
+        <v>25.000000000000004</v>
+      </c>
+      <c r="D10" s="14">
+        <f t="shared" ref="D10:G10" si="3">IF(((D8*($C$4/100))+D9)&lt;=(2^$G$4-1),((D8*($C$4/100))+D9),"Out of range")</f>
+        <v>12.500000000000002</v>
+      </c>
+      <c r="E10" s="14">
         <f t="shared" si="3"/>
-        <v>4.75</v>
-      </c>
-      <c r="F10" s="15">
+        <v>6.2500000000000009</v>
+      </c>
+      <c r="F10" s="14">
         <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-      <c r="G10" s="15">
+        <v>3.1250000000000004</v>
+      </c>
+      <c r="G10" s="14">
         <f t="shared" si="3"/>
-        <v>0.14250000000000002</v>
+        <v>1.5625000000000002</v>
       </c>
       <c r="H10" s="1"/>
     </row>
@@ -1019,50 +1013,50 @@
       <c r="B11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <f>IF(((($B$4/C7)/360)*$E$4)&lt;=(2^$G$4-1),((($B$4/C7)/360)*$E$4),"Out of range")</f>
-        <v>5</v>
-      </c>
-      <c r="D11" s="16">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="D11" s="15">
         <f t="shared" ref="D11:G11" si="4">IF(((($B$4/D7)/360)*$E$4)&lt;=(2^$G$4-1),((($B$4/D7)/360)*$E$4),"Out of range")</f>
-        <v>2.5</v>
-      </c>
-      <c r="E11" s="16">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="E11" s="15">
         <f t="shared" si="4"/>
-        <v>1.25</v>
-      </c>
-      <c r="F11" s="16">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="F11" s="15">
         <f t="shared" si="4"/>
-        <v>0.625</v>
-      </c>
-      <c r="G11" s="16">
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="G11" s="15">
         <f t="shared" si="4"/>
-        <v>0.3125</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="25" t="str">
+      <c r="C12" s="23" t="str">
         <f>DEC2BIN(0,3)</f>
         <v>000</v>
       </c>
-      <c r="D12" s="25" t="str">
+      <c r="D12" s="23" t="str">
         <f>DEC2BIN(1,3)</f>
         <v>001</v>
       </c>
-      <c r="E12" s="25" t="str">
+      <c r="E12" s="23" t="str">
         <f>DEC2BIN(2,3)</f>
         <v>010</v>
       </c>
-      <c r="F12" s="25" t="str">
+      <c r="F12" s="23" t="str">
         <f>DEC2BIN(3,3)</f>
         <v>011</v>
       </c>
-      <c r="G12" s="26" t="str">
+      <c r="G12" s="24" t="str">
         <f>DEC2BIN(4,3)</f>
         <v>100</v>
       </c>
@@ -1073,25 +1067,25 @@
       <c r="B13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="21">
         <f>ROUND(C8,0)</f>
-        <v>8</v>
-      </c>
-      <c r="D13" s="22">
-        <f t="shared" ref="D13:G13" si="5">ROUND(D8,0)</f>
-        <v>4</v>
-      </c>
-      <c r="E13" s="22">
+        <v>50</v>
+      </c>
+      <c r="D13" s="21">
+        <f>ROUND(D8,0)</f>
+        <v>25</v>
+      </c>
+      <c r="E13" s="21">
+        <f t="shared" ref="D13:G13" si="5">ROUND(E8,0)</f>
+        <v>13</v>
+      </c>
+      <c r="F13" s="21">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="F13" s="22">
+        <v>6</v>
+      </c>
+      <c r="G13" s="21">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G13" s="22">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H13" s="1"/>
     </row>
@@ -1100,23 +1094,23 @@
       <c r="B14" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="21">
         <f>ROUND(C9,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D14" s="22">
+        <v>0</v>
+      </c>
+      <c r="D14" s="21">
         <f t="shared" ref="D14:G14" si="6">ROUND(D9,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E14" s="22">
+        <v>0</v>
+      </c>
+      <c r="E14" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="21">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -1127,25 +1121,25 @@
       <c r="B15" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="21">
         <f>ROUND(C10,0)</f>
-        <v>4</v>
-      </c>
-      <c r="D15" s="23">
+        <v>25</v>
+      </c>
+      <c r="D15" s="21">
         <f t="shared" ref="D15:G15" si="7">ROUND(D10,0)</f>
+        <v>13</v>
+      </c>
+      <c r="E15" s="21">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="F15" s="21">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="G15" s="21">
+        <f t="shared" si="7"/>
         <v>2</v>
-      </c>
-      <c r="E15" s="23">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="F15" s="23">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="23">
-        <f t="shared" si="7"/>
-        <v>0</v>
       </c>
       <c r="H15" s="1"/>
     </row>
@@ -1154,25 +1148,25 @@
       <c r="B16" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="22">
         <f>ROUND(C11,0)</f>
-        <v>5</v>
-      </c>
-      <c r="D16" s="24">
+        <v>17</v>
+      </c>
+      <c r="D16" s="22">
         <f t="shared" ref="D16:G16" si="8">ROUND(D11,0)</f>
-        <v>3</v>
-      </c>
-      <c r="E16" s="24">
+        <v>8</v>
+      </c>
+      <c r="E16" s="22">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="F16" s="22">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="G16" s="22">
         <f t="shared" si="8"/>
         <v>1</v>
-      </c>
-      <c r="F16" s="24">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="G16" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
       </c>
       <c r="H16" s="1"/>
     </row>
